--- a/DataSet/wikis.xlsx
+++ b/DataSet/wikis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willjaekle/Desktop/workspace/Brown/Data2050/Src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28165\caption\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81FD0C9-ABD3-5B47-9047-49EACE0B9F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D45433-4137-4F62-B4B8-A8B72DE60247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="2860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="2876">
   <si>
     <t>titles</t>
   </si>
@@ -8693,16 +8693,65 @@
   <si>
     <t>labels</t>
   </si>
+  <si>
+    <t>ChaptGPT Answer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Attila Levin is a Swedish boxer."</t>
+  </si>
+  <si>
+    <t>"Provide information about former Holmfirth railway station"</t>
+  </si>
+  <si>
+    <t>"I-35W bridge collapse in Minnesota due to design flaw</t>
+  </si>
+  <si>
+    <t>Michelle Wright releases greatest hits album"</t>
+  </si>
+  <si>
+    <t>Historical context and information about Chinese provinces.</t>
+  </si>
+  <si>
+    <t>provide information about the Japanese film "One Week Friends" and its release date, cast, and theme song.</t>
+  </si>
+  <si>
+    <t>Provide information about Seether's debut album, Disclaimer.</t>
+  </si>
+  <si>
+    <t>"Indian film about corrupt politicians and honest police"</t>
+  </si>
+  <si>
+    <t>"Dark Mirror" is a horror film with a psychological twist.</t>
+  </si>
+  <si>
+    <t>Describe the location and history of Withrow, Minnesota.</t>
+  </si>
+  <si>
+    <t>Information about Hank Williams Jr's album "The Almeria Club Recordings"</t>
+  </si>
+  <si>
+    <t>Describe McKee Run stream in Montour County, Pennsylvania"</t>
+  </si>
+  <si>
+    <t>Describe Salford Quays tram stop location and history.</t>
+  </si>
+  <si>
+    <t>Inform about IQ's 1997 double album "Subterranea"</t>
+  </si>
+  <si>
+    <t>To provide information about a compilation album.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -8710,6 +8759,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -8748,13 +8816,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9060,20 +9132,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="2"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="79.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="79.375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="17" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9086,8 +9158,11 @@
       <c r="E1" s="2" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9103,11 +9178,14 @@
       <c r="E2" s="2" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="231" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9120,8 +9198,11 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9134,8 +9215,11 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9148,8 +9232,11 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9165,8 +9252,11 @@
       <c r="E7" s="2" t="s">
         <v>2848</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9179,8 +9269,11 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9193,8 +9286,11 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9207,8 +9303,11 @@
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="4" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9221,8 +9320,11 @@
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9238,8 +9340,11 @@
       <c r="E12" s="2" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9252,8 +9357,11 @@
       <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9266,8 +9374,11 @@
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9284,7 +9395,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9300,8 +9411,11 @@
       <c r="E16" s="2" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9314,8 +9428,11 @@
       <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9329,7 +9446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9342,8 +9459,11 @@
       <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9360,7 +9480,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9374,7 +9494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9388,7 +9508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9402,7 +9522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9419,7 +9539,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9433,7 +9553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9447,7 +9567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9461,7 +9581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9475,7 +9595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9489,7 +9609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9506,7 +9626,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9520,7 +9640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9534,7 +9654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9548,7 +9668,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9562,7 +9682,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9576,7 +9696,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9590,7 +9710,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9607,7 +9727,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9621,7 +9741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9635,7 +9755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9649,7 +9769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9663,7 +9783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9677,7 +9797,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9691,7 +9811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9708,7 +9828,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9725,7 +9845,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9739,7 +9859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9753,7 +9873,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9767,7 +9887,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9784,7 +9904,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9805,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9823,7 +9943,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9841,7 +9961,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9862,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9883,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9904,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9925,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9943,7 +10063,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9961,7 +10081,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9979,7 +10099,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9997,7 +10117,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10015,7 +10135,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10033,7 +10153,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10051,7 +10171,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10072,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10090,7 +10210,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10108,7 +10228,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10126,7 +10246,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10144,7 +10264,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10165,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10186,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10204,7 +10324,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10222,7 +10342,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10243,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10261,7 +10381,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10279,7 +10399,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10297,7 +10417,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10315,7 +10435,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10336,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10354,7 +10474,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10372,7 +10492,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10393,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10414,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10435,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10453,7 +10573,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10471,7 +10591,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10489,7 +10609,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10507,7 +10627,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10525,7 +10645,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10543,7 +10663,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10561,7 +10681,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10579,7 +10699,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10597,7 +10717,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10615,7 +10735,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10633,7 +10753,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10651,7 +10771,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10669,7 +10789,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10690,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10708,7 +10828,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10729,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10750,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10768,7 +10888,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10786,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10804,7 +10924,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10822,7 +10942,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10840,7 +10960,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10858,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10876,7 +10996,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10897,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10918,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10939,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10957,7 +11077,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10975,7 +11095,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10993,7 +11113,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11014,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11032,7 +11152,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -11050,7 +11170,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -11068,7 +11188,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -11082,14 +11202,14 @@
         <v>347</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" ref="E115:E178" si="2">IF(F118= 1, _xlfn.CONCAT("Biography of ", B118),"" )</f>
+        <f t="shared" ref="E118:E178" si="2">IF(F118= 1, _xlfn.CONCAT("Biography of ", B118),"" )</f>
         <v>Biography of Trevor Carrick</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11110,7 +11230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11128,7 +11248,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11146,7 +11266,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -11164,7 +11284,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11182,7 +11302,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11200,7 +11320,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11218,7 +11338,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11239,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11257,7 +11377,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11275,7 +11395,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11293,7 +11413,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11311,7 +11431,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11332,7 +11452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11353,7 +11473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11374,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11392,7 +11512,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11413,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11431,7 +11551,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11449,7 +11569,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11467,7 +11587,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11485,7 +11605,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11503,7 +11623,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11521,7 +11641,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -11542,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -11560,7 +11680,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -11578,7 +11698,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -11596,7 +11716,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -11614,7 +11734,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -11632,7 +11752,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -11650,7 +11770,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -11668,7 +11788,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -11686,7 +11806,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -11704,7 +11824,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -11722,7 +11842,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -11740,7 +11860,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11761,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11779,7 +11899,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11797,7 +11917,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11815,7 +11935,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11836,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11854,7 +11974,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11872,7 +11992,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11893,7 +12013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11911,7 +12031,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11926,7 +12046,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11944,7 +12064,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11962,7 +12082,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11980,7 +12100,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11998,7 +12118,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -12016,7 +12136,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -12037,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -12055,7 +12175,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -12073,7 +12193,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12091,7 +12211,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12109,7 +12229,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12127,7 +12247,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12148,7 +12268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12166,7 +12286,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12184,7 +12304,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12202,7 +12322,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12220,7 +12340,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12241,7 +12361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12259,7 +12379,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12280,7 +12400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12298,7 +12418,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12319,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12340,7 +12460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12358,7 +12478,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12376,7 +12496,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12394,7 +12514,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12412,7 +12532,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12430,7 +12550,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12448,7 +12568,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12466,7 +12586,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12484,7 +12604,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12502,7 +12622,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12520,7 +12640,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12538,7 +12658,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12556,7 +12676,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12574,7 +12694,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12592,7 +12712,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12610,7 +12730,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -12628,7 +12748,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12646,7 +12766,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12664,7 +12784,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12682,7 +12802,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12700,7 +12820,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -12718,7 +12838,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -12736,7 +12856,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -12754,7 +12874,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -12772,7 +12892,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -12790,7 +12910,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -12808,7 +12928,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -12826,7 +12946,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -12844,7 +12964,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -12862,7 +12982,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12880,7 +13000,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12898,7 +13018,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12916,7 +13036,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12934,7 +13054,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12952,7 +13072,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12970,7 +13090,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12988,7 +13108,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13006,7 +13126,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13024,7 +13144,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13042,7 +13162,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13060,7 +13180,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13078,7 +13198,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13096,7 +13216,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13114,7 +13234,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13132,7 +13252,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -13150,7 +13270,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -13168,7 +13288,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -13186,7 +13306,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -13204,7 +13324,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13222,7 +13342,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13240,7 +13360,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13258,7 +13378,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13276,7 +13396,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13294,7 +13414,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -13312,7 +13432,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13330,7 +13450,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13348,7 +13468,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13366,7 +13486,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13384,7 +13504,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13402,7 +13522,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13420,7 +13540,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13438,7 +13558,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13456,7 +13576,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13474,7 +13594,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13492,7 +13612,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13510,7 +13630,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13528,7 +13648,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13546,7 +13666,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -13564,7 +13684,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -13582,7 +13702,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -13600,7 +13720,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -13618,7 +13738,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -13636,7 +13756,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -13654,7 +13774,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -13672,7 +13792,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -13690,7 +13810,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -13708,7 +13828,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -13726,7 +13846,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -13744,7 +13864,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -13762,7 +13882,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -13780,7 +13900,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -13798,7 +13918,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -13816,7 +13936,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -13834,7 +13954,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -13852,7 +13972,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -13870,7 +13990,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -13888,7 +14008,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -13906,7 +14026,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -13924,7 +14044,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -13942,7 +14062,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -13960,7 +14080,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -13978,7 +14098,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -13996,7 +14116,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -14014,7 +14134,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -14032,7 +14152,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -14050,7 +14170,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -14068,7 +14188,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -14086,7 +14206,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -14104,7 +14224,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -14122,7 +14242,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -14140,7 +14260,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -14158,7 +14278,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -14176,7 +14296,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -14194,7 +14314,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14212,7 +14332,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14230,7 +14350,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -14248,7 +14368,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -14266,7 +14386,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -14284,7 +14404,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -14302,7 +14422,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -14320,7 +14440,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -14338,7 +14458,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -14356,7 +14476,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -14374,7 +14494,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -14392,7 +14512,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -14410,7 +14530,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -14428,7 +14548,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -14446,7 +14566,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14464,7 +14584,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -14482,7 +14602,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -14500,7 +14620,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -14518,7 +14638,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -14536,7 +14656,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -14554,7 +14674,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -14572,7 +14692,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -14590,7 +14710,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -14608,7 +14728,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -14626,7 +14746,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -14644,7 +14764,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -14662,7 +14782,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -14680,7 +14800,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -14698,7 +14818,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -14716,7 +14836,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -14734,7 +14854,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -14752,7 +14872,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -14770,7 +14890,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -14788,7 +14908,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -14806,7 +14926,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -14824,7 +14944,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -14842,7 +14962,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -14860,7 +14980,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -14878,7 +14998,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -14896,7 +15016,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -14914,7 +15034,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -14932,7 +15052,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -14950,7 +15070,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -14968,7 +15088,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -14986,7 +15106,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15004,7 +15124,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15022,7 +15142,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -15040,7 +15160,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -15058,7 +15178,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -15076,7 +15196,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -15094,7 +15214,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -15112,7 +15232,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -15130,7 +15250,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -15148,7 +15268,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -15166,7 +15286,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -15184,7 +15304,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -15202,7 +15322,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -15220,7 +15340,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -15238,7 +15358,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -15256,7 +15376,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -15274,7 +15394,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -15292,7 +15412,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -15310,7 +15430,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -15328,7 +15448,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -15346,7 +15466,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -15364,7 +15484,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -15382,7 +15502,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -15400,7 +15520,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -15418,7 +15538,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -15436,7 +15556,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -15454,7 +15574,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -15472,7 +15592,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -15490,7 +15610,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -15508,7 +15628,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -15526,7 +15646,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -15544,7 +15664,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -15562,7 +15682,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -15580,7 +15700,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -15598,7 +15718,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -15616,7 +15736,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -15634,7 +15754,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -15652,7 +15772,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -15670,7 +15790,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -15688,7 +15808,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -15706,7 +15826,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -15724,7 +15844,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -15742,7 +15862,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -15760,7 +15880,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -15778,7 +15898,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -15796,7 +15916,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -15814,7 +15934,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -15832,7 +15952,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -15850,7 +15970,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -15868,7 +15988,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -15886,7 +16006,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -15904,7 +16024,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -15922,7 +16042,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -15940,7 +16060,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -15958,7 +16078,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -15976,7 +16096,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -15994,7 +16114,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -16012,7 +16132,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -16030,7 +16150,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -16048,7 +16168,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -16066,7 +16186,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -16084,7 +16204,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -16102,7 +16222,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -16120,7 +16240,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -16138,7 +16258,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -16156,7 +16276,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -16174,7 +16294,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -16192,7 +16312,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -16210,7 +16330,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -16228,7 +16348,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -16246,7 +16366,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -16264,7 +16384,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -16282,7 +16402,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -16300,7 +16420,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -16318,7 +16438,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -16336,7 +16456,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -16354,7 +16474,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -16372,7 +16492,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -16390,7 +16510,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -16408,7 +16528,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -16426,7 +16546,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -16444,7 +16564,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -16462,7 +16582,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -16480,7 +16600,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -16498,7 +16618,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -16516,7 +16636,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -16534,7 +16654,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -16552,7 +16672,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -16570,7 +16690,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -16588,7 +16708,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -16606,7 +16726,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -16624,7 +16744,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -16642,7 +16762,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -16660,7 +16780,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -16678,7 +16798,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -16696,7 +16816,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -16714,7 +16834,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -16732,7 +16852,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -16750,7 +16870,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -16768,7 +16888,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -16786,7 +16906,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -16804,7 +16924,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -16822,7 +16942,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -16840,7 +16960,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -16858,7 +16978,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -16876,7 +16996,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -16894,7 +17014,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -16912,7 +17032,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -16930,7 +17050,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -16948,7 +17068,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -16966,7 +17086,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -16984,7 +17104,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -17002,7 +17122,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -17020,7 +17140,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -17038,7 +17158,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -17056,7 +17176,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -17074,7 +17194,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -17092,7 +17212,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -17110,7 +17230,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -17128,7 +17248,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -17146,7 +17266,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -17164,7 +17284,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -17182,7 +17302,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -17200,7 +17320,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -17218,7 +17338,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -17236,7 +17356,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -17254,7 +17374,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -17272,7 +17392,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -17290,7 +17410,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -17308,7 +17428,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -17326,7 +17446,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -17344,7 +17464,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -17362,7 +17482,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -17380,7 +17500,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -17398,7 +17518,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -17416,7 +17536,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -17434,7 +17554,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -17452,7 +17572,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -17470,7 +17590,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -17488,7 +17608,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -17506,7 +17626,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -17524,7 +17644,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -17542,7 +17662,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -17560,7 +17680,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -17578,7 +17698,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -17596,7 +17716,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -17614,7 +17734,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -17632,7 +17752,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -17650,7 +17770,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -17668,7 +17788,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -17686,7 +17806,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -17704,7 +17824,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -17722,7 +17842,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -17740,7 +17860,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -17758,7 +17878,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -17776,7 +17896,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -17794,7 +17914,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -17812,7 +17932,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -17830,7 +17950,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -17848,7 +17968,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -17866,7 +17986,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -17884,7 +18004,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -17902,7 +18022,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -17920,7 +18040,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -17938,7 +18058,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -17956,7 +18076,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -17974,7 +18094,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -17992,7 +18112,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -18010,7 +18130,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -18028,7 +18148,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -18046,7 +18166,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -18064,7 +18184,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -18082,7 +18202,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -18100,7 +18220,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -18118,7 +18238,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -18136,7 +18256,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -18154,7 +18274,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -18172,7 +18292,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -18190,7 +18310,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -18208,7 +18328,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -18226,7 +18346,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -18244,7 +18364,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -18262,7 +18382,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -18280,7 +18400,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -18298,7 +18418,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -18316,7 +18436,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -18334,7 +18454,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -18352,7 +18472,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -18370,7 +18490,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -18388,7 +18508,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -18406,7 +18526,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -18424,7 +18544,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -18442,7 +18562,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -18460,7 +18580,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -18478,7 +18598,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -18496,7 +18616,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -18514,7 +18634,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -18532,7 +18652,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -18550,7 +18670,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -18568,7 +18688,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -18586,7 +18706,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -18604,7 +18724,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -18622,7 +18742,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -18640,7 +18760,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -18658,7 +18778,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -18676,7 +18796,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -18694,7 +18814,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -18712,7 +18832,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -18730,7 +18850,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -18748,7 +18868,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -18766,7 +18886,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -18784,7 +18904,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -18802,7 +18922,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -18820,7 +18940,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -18838,7 +18958,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -18856,7 +18976,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -18874,7 +18994,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -18892,7 +19012,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -18910,7 +19030,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -18928,7 +19048,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -18946,7 +19066,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -18964,7 +19084,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -18982,7 +19102,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -19000,7 +19120,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -19018,7 +19138,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -19036,7 +19156,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -19054,7 +19174,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -19072,7 +19192,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -19090,7 +19210,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -19108,7 +19228,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -19126,7 +19246,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -19144,7 +19264,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -19162,7 +19282,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -19180,7 +19300,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -19198,7 +19318,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -19216,7 +19336,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -19234,7 +19354,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -19252,7 +19372,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -19270,7 +19390,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -19288,7 +19408,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -19306,7 +19426,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -19324,7 +19444,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -19342,7 +19462,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -19360,7 +19480,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -19378,7 +19498,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -19396,7 +19516,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -19414,7 +19534,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -19432,7 +19552,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -19450,7 +19570,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -19468,7 +19588,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -19486,7 +19606,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -19504,7 +19624,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -19522,7 +19642,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -19540,7 +19660,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -19558,7 +19678,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -19576,7 +19696,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -19594,7 +19714,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -19612,7 +19732,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -19630,7 +19750,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -19648,7 +19768,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -19666,7 +19786,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -19684,7 +19804,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -19702,7 +19822,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -19720,7 +19840,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -19738,7 +19858,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -19756,7 +19876,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -19774,7 +19894,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -19792,7 +19912,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -19810,7 +19930,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -19828,7 +19948,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -19846,7 +19966,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -19864,7 +19984,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -19882,7 +20002,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -19900,7 +20020,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -19918,7 +20038,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -19936,7 +20056,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -19954,7 +20074,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -19972,7 +20092,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -19990,7 +20110,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -20008,7 +20128,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -20026,7 +20146,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -20044,7 +20164,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -20062,7 +20182,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -20080,7 +20200,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -20098,7 +20218,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -20116,7 +20236,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -20134,7 +20254,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -20152,7 +20272,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -20170,7 +20290,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -20188,7 +20308,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -20206,7 +20326,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -20224,7 +20344,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -20242,7 +20362,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -20260,7 +20380,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -20278,7 +20398,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -20296,7 +20416,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -20314,7 +20434,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -20332,7 +20452,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -20350,7 +20470,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -20368,7 +20488,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -20386,7 +20506,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -20404,7 +20524,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -20422,7 +20542,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -20440,7 +20560,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -20458,7 +20578,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -20476,7 +20596,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -20494,7 +20614,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -20512,7 +20632,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -20530,7 +20650,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -20548,7 +20668,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -20566,7 +20686,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -20584,7 +20704,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -20602,7 +20722,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -20620,7 +20740,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -20638,7 +20758,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -20656,7 +20776,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -20674,7 +20794,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -20692,7 +20812,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -20710,7 +20830,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -20728,7 +20848,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -20746,7 +20866,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -20764,7 +20884,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -20782,7 +20902,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -20800,7 +20920,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -20818,7 +20938,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -20836,7 +20956,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -20854,7 +20974,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -20872,7 +20992,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -20890,7 +21010,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -20908,7 +21028,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -20926,7 +21046,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -20944,7 +21064,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -20962,7 +21082,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -20980,7 +21100,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -20998,7 +21118,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -21016,7 +21136,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -21034,7 +21154,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -21052,7 +21172,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -21070,7 +21190,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -21088,7 +21208,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -21106,7 +21226,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -21124,7 +21244,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -21142,7 +21262,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -21160,7 +21280,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -21178,7 +21298,7 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -21196,7 +21316,7 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -21214,7 +21334,7 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -21232,7 +21352,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -21250,7 +21370,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -21268,7 +21388,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -21286,7 +21406,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -21304,7 +21424,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -21322,7 +21442,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -21340,7 +21460,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -21358,7 +21478,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -21376,7 +21496,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -21394,7 +21514,7 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -21412,7 +21532,7 @@
         <v/>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -21430,7 +21550,7 @@
         <v/>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -21448,7 +21568,7 @@
         <v/>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -21466,7 +21586,7 @@
         <v/>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -21484,7 +21604,7 @@
         <v/>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -21502,7 +21622,7 @@
         <v/>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -21520,7 +21640,7 @@
         <v/>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -21538,7 +21658,7 @@
         <v/>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -21556,7 +21676,7 @@
         <v/>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -21574,7 +21694,7 @@
         <v/>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -21592,7 +21712,7 @@
         <v/>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -21610,7 +21730,7 @@
         <v/>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -21628,7 +21748,7 @@
         <v/>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -21646,7 +21766,7 @@
         <v/>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -21664,7 +21784,7 @@
         <v/>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -21682,7 +21802,7 @@
         <v/>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -21700,7 +21820,7 @@
         <v/>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -21718,7 +21838,7 @@
         <v/>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -21736,7 +21856,7 @@
         <v/>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -21754,7 +21874,7 @@
         <v/>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -21772,7 +21892,7 @@
         <v/>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -21790,7 +21910,7 @@
         <v/>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -21808,7 +21928,7 @@
         <v/>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -21826,7 +21946,7 @@
         <v/>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -21844,7 +21964,7 @@
         <v/>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -21862,7 +21982,7 @@
         <v/>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -21880,7 +22000,7 @@
         <v/>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -21898,7 +22018,7 @@
         <v/>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -21916,7 +22036,7 @@
         <v/>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -21934,7 +22054,7 @@
         <v/>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -21952,7 +22072,7 @@
         <v/>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -21970,7 +22090,7 @@
         <v/>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -21988,7 +22108,7 @@
         <v/>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -22006,7 +22126,7 @@
         <v/>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -22024,7 +22144,7 @@
         <v/>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -22042,7 +22162,7 @@
         <v/>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -22060,7 +22180,7 @@
         <v/>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -22078,7 +22198,7 @@
         <v/>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -22096,7 +22216,7 @@
         <v/>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -22114,7 +22234,7 @@
         <v/>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -22132,7 +22252,7 @@
         <v/>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -22150,7 +22270,7 @@
         <v/>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -22168,7 +22288,7 @@
         <v/>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -22186,7 +22306,7 @@
         <v/>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -22204,7 +22324,7 @@
         <v/>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -22222,7 +22342,7 @@
         <v/>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -22240,7 +22360,7 @@
         <v/>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -22258,7 +22378,7 @@
         <v/>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -22276,7 +22396,7 @@
         <v/>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -22294,7 +22414,7 @@
         <v/>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -22312,7 +22432,7 @@
         <v/>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -22330,7 +22450,7 @@
         <v/>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -22348,7 +22468,7 @@
         <v/>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -22366,7 +22486,7 @@
         <v/>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -22384,7 +22504,7 @@
         <v/>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -22402,7 +22522,7 @@
         <v/>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -22420,7 +22540,7 @@
         <v/>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -22438,7 +22558,7 @@
         <v/>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -22456,7 +22576,7 @@
         <v/>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -22474,7 +22594,7 @@
         <v/>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -22492,7 +22612,7 @@
         <v/>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -22506,7 +22626,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -22520,7 +22640,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -22534,7 +22654,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -22548,7 +22668,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -22562,7 +22682,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -22576,7 +22696,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -22590,7 +22710,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -22604,7 +22724,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -22618,7 +22738,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -22632,7 +22752,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -22646,7 +22766,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -22660,7 +22780,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -22674,7 +22794,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -22688,7 +22808,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -22702,7 +22822,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -22716,7 +22836,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -22730,7 +22850,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -22744,7 +22864,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -22758,7 +22878,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -22772,7 +22892,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -22786,7 +22906,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -22800,7 +22920,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -22814,7 +22934,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -22828,7 +22948,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -22842,7 +22962,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -22856,7 +22976,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -22870,7 +22990,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -22884,7 +23004,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -22898,7 +23018,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -22912,7 +23032,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -22926,7 +23046,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -22940,7 +23060,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -22954,7 +23074,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -22968,7 +23088,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -22982,7 +23102,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -22996,7 +23116,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -23010,7 +23130,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -23024,7 +23144,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -23038,7 +23158,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -23052,7 +23172,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -23066,7 +23186,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -23080,7 +23200,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -23094,7 +23214,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -23108,7 +23228,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -23122,7 +23242,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -23136,7 +23256,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -23150,7 +23270,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -23164,7 +23284,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -23178,7 +23298,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -23192,7 +23312,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -23206,7 +23326,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -23220,7 +23340,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -23234,7 +23354,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -23248,7 +23368,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -23262,7 +23382,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -23276,7 +23396,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -23290,7 +23410,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -23304,7 +23424,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -23318,7 +23438,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -23332,7 +23452,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -23346,7 +23466,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -23360,7 +23480,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -23374,7 +23494,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -23388,7 +23508,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -23402,7 +23522,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -23416,7 +23536,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -23430,7 +23550,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -23444,7 +23564,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -23458,7 +23578,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -23472,7 +23592,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -23486,7 +23606,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -23500,7 +23620,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -23514,7 +23634,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -23528,7 +23648,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -23542,7 +23662,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -23556,7 +23676,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -23570,7 +23690,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -23584,7 +23704,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -23598,7 +23718,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -23612,7 +23732,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -23626,7 +23746,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -23640,7 +23760,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -23654,7 +23774,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -23668,7 +23788,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -23682,7 +23802,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -23696,7 +23816,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -23710,7 +23830,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -23724,7 +23844,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -23738,7 +23858,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -23752,7 +23872,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -23766,7 +23886,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -23780,7 +23900,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -23794,7 +23914,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -23808,7 +23928,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -23822,7 +23942,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -23836,7 +23956,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -23850,7 +23970,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -23864,7 +23984,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -23878,7 +23998,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -23892,7 +24012,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -23906,7 +24026,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -23920,7 +24040,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -23934,7 +24054,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -23948,7 +24068,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -23962,7 +24082,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -23976,7 +24096,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -23990,7 +24110,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -24004,7 +24124,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -24018,7 +24138,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -24032,7 +24152,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -24046,7 +24166,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -24060,7 +24180,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -24074,7 +24194,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -24088,7 +24208,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -24102,7 +24222,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -24116,7 +24236,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -24130,7 +24250,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -24144,7 +24264,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -24158,7 +24278,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -24172,7 +24292,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -24186,7 +24306,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -24200,7 +24320,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -24214,7 +24334,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -24228,7 +24348,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -24242,7 +24362,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -24256,7 +24376,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -24270,7 +24390,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -24284,7 +24404,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -24298,7 +24418,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -24312,7 +24432,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -24326,7 +24446,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -24340,7 +24460,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -24354,7 +24474,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -24368,7 +24488,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -24382,7 +24502,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -24396,7 +24516,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -24410,7 +24530,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="1">
         <v>885</v>
       </c>
@@ -24424,7 +24544,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A888" s="1">
         <v>886</v>
       </c>
@@ -24438,7 +24558,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -24452,7 +24572,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -24466,7 +24586,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="1">
         <v>889</v>
       </c>
@@ -24480,7 +24600,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -24494,7 +24614,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A893" s="1">
         <v>891</v>
       </c>
@@ -24508,7 +24628,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A894" s="1">
         <v>892</v>
       </c>
@@ -24522,7 +24642,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A895" s="1">
         <v>893</v>
       </c>
@@ -24536,7 +24656,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A896" s="1">
         <v>894</v>
       </c>
@@ -24550,7 +24670,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A897" s="1">
         <v>895</v>
       </c>
@@ -24564,7 +24684,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A898" s="1">
         <v>896</v>
       </c>
@@ -24578,7 +24698,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A899" s="1">
         <v>897</v>
       </c>
@@ -24592,7 +24712,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A900" s="1">
         <v>898</v>
       </c>
@@ -24606,7 +24726,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A901" s="1">
         <v>899</v>
       </c>
@@ -24620,7 +24740,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A902" s="1">
         <v>900</v>
       </c>
@@ -24634,7 +24754,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="903" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A903" s="1">
         <v>901</v>
       </c>
@@ -24648,7 +24768,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A904" s="1">
         <v>902</v>
       </c>
@@ -24662,7 +24782,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A905" s="1">
         <v>903</v>
       </c>
@@ -24676,7 +24796,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A906" s="1">
         <v>904</v>
       </c>
@@ -24690,7 +24810,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A907" s="1">
         <v>905</v>
       </c>
@@ -24704,7 +24824,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="908" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A908" s="1">
         <v>906</v>
       </c>
@@ -24718,7 +24838,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A909" s="1">
         <v>907</v>
       </c>
@@ -24732,7 +24852,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A910" s="1">
         <v>908</v>
       </c>
@@ -24746,7 +24866,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A911" s="1">
         <v>909</v>
       </c>
@@ -24760,7 +24880,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A912" s="1">
         <v>910</v>
       </c>
@@ -24774,7 +24894,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A913" s="1">
         <v>911</v>
       </c>
@@ -24788,7 +24908,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="914" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A914" s="1">
         <v>912</v>
       </c>
@@ -24802,7 +24922,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A915" s="1">
         <v>913</v>
       </c>
@@ -24816,7 +24936,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A916" s="1">
         <v>914</v>
       </c>
@@ -24830,7 +24950,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A917" s="1">
         <v>915</v>
       </c>
@@ -24844,7 +24964,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="918" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A918" s="1">
         <v>916</v>
       </c>
@@ -24858,7 +24978,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A919" s="1">
         <v>917</v>
       </c>
@@ -24872,7 +24992,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A920" s="1">
         <v>918</v>
       </c>
@@ -24886,7 +25006,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A921" s="1">
         <v>919</v>
       </c>
@@ -24900,7 +25020,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A922" s="1">
         <v>920</v>
       </c>
@@ -24914,7 +25034,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="923" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A923" s="1">
         <v>921</v>
       </c>
@@ -24928,7 +25048,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="924" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A924" s="1">
         <v>922</v>
       </c>
@@ -24942,7 +25062,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="925" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -24956,7 +25076,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -24970,7 +25090,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="927" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A927" s="1">
         <v>925</v>
       </c>
@@ -24984,7 +25104,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -24998,7 +25118,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="929" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -25012,7 +25132,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="930" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A930" s="1">
         <v>928</v>
       </c>
@@ -25026,7 +25146,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A931" s="1">
         <v>929</v>
       </c>
@@ -25040,7 +25160,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A932" s="1">
         <v>930</v>
       </c>
@@ -25054,7 +25174,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A933" s="1">
         <v>931</v>
       </c>
@@ -25068,7 +25188,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="934" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A934" s="1">
         <v>932</v>
       </c>
@@ -25082,7 +25202,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A935" s="1">
         <v>933</v>
       </c>
@@ -25096,7 +25216,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -25110,7 +25230,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="937" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A937" s="1">
         <v>935</v>
       </c>
@@ -25124,7 +25244,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A938" s="1">
         <v>936</v>
       </c>
@@ -25138,7 +25258,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A939" s="1">
         <v>937</v>
       </c>
@@ -25152,7 +25272,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A940" s="1">
         <v>938</v>
       </c>
@@ -25166,7 +25286,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -25180,7 +25300,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A942" s="1">
         <v>940</v>
       </c>
@@ -25194,7 +25314,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A943" s="1">
         <v>941</v>
       </c>
@@ -25208,7 +25328,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="944" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A944" s="1">
         <v>942</v>
       </c>
@@ -25222,7 +25342,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="945" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A945" s="1">
         <v>943</v>
       </c>
@@ -25236,7 +25356,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="946" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A946" s="1">
         <v>944</v>
       </c>
@@ -25250,7 +25370,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="947" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A947" s="1">
         <v>945</v>
       </c>
@@ -25264,7 +25384,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A948" s="1">
         <v>946</v>
       </c>
@@ -25278,7 +25398,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="949" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A949" s="1">
         <v>947</v>
       </c>
@@ -25292,7 +25412,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="950" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A950" s="1">
         <v>948</v>
       </c>
@@ -25306,7 +25426,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="951" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A951" s="1">
         <v>949</v>
       </c>
@@ -25320,7 +25440,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="952" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A952" s="1">
         <v>950</v>
       </c>
@@ -25334,7 +25454,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -25348,7 +25468,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="954" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A954" s="1">
         <v>952</v>
       </c>
@@ -25362,7 +25482,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="955" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A955" s="1">
         <v>953</v>
       </c>
@@ -25376,7 +25496,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="956" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A956" s="1">
         <v>954</v>
       </c>
@@ -25390,7 +25510,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="957" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A957" s="1">
         <v>955</v>
       </c>
@@ -25404,7 +25524,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="958" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A958" s="1">
         <v>956</v>
       </c>
@@ -25418,7 +25538,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="959" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A959" s="1">
         <v>957</v>
       </c>
@@ -25432,7 +25552,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A960" s="1">
         <v>958</v>
       </c>
@@ -25446,7 +25566,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A961" s="1">
         <v>959</v>
       </c>
@@ -25460,7 +25580,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A962" s="1">
         <v>960</v>
       </c>
@@ -25474,7 +25594,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A963" s="1">
         <v>961</v>
       </c>
@@ -25488,7 +25608,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="964" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A964" s="1">
         <v>962</v>
       </c>
@@ -25502,7 +25622,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="965" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A965" s="1">
         <v>963</v>
       </c>
@@ -25516,7 +25636,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="966" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A966" s="1">
         <v>964</v>
       </c>
@@ -25530,7 +25650,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A967" s="1">
         <v>965</v>
       </c>
@@ -25544,7 +25664,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="968" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A968" s="1">
         <v>966</v>
       </c>
@@ -25558,7 +25678,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="969" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A969" s="1">
         <v>967</v>
       </c>
@@ -25572,7 +25692,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="970" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A970" s="1">
         <v>968</v>
       </c>
@@ -25586,7 +25706,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="971" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A971" s="1">
         <v>969</v>
       </c>
@@ -25600,7 +25720,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="972" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A972" s="1">
         <v>970</v>
       </c>
@@ -25614,7 +25734,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="973" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A973" s="1">
         <v>971</v>
       </c>
@@ -25628,7 +25748,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="974" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A974" s="1">
         <v>972</v>
       </c>
@@ -25642,7 +25762,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="975" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A975" s="1">
         <v>973</v>
       </c>
@@ -25656,7 +25776,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="976" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A976" s="1">
         <v>974</v>
       </c>
@@ -25670,7 +25790,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="977" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A977" s="1">
         <v>975</v>
       </c>
@@ -25684,7 +25804,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="978" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A978" s="1">
         <v>976</v>
       </c>
@@ -25698,7 +25818,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="979" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A979" s="1">
         <v>977</v>
       </c>
@@ -25712,7 +25832,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="980" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A980" s="1">
         <v>978</v>
       </c>
@@ -25726,7 +25846,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="981" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A981" s="1">
         <v>979</v>
       </c>
@@ -25740,7 +25860,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="982" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A982" s="1">
         <v>980</v>
       </c>
@@ -25754,7 +25874,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="983" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A983" s="1">
         <v>981</v>
       </c>
@@ -25768,7 +25888,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="984" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A984" s="1">
         <v>982</v>
       </c>
@@ -25782,7 +25902,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="985" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A985" s="1">
         <v>983</v>
       </c>
@@ -25796,7 +25916,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="986" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A986" s="1">
         <v>984</v>
       </c>
@@ -25810,7 +25930,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="987" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A987" s="1">
         <v>985</v>
       </c>
@@ -25824,7 +25944,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="988" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A988" s="1">
         <v>986</v>
       </c>
@@ -25838,7 +25958,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="989" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A989" s="1">
         <v>987</v>
       </c>
@@ -25852,7 +25972,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="990" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A990" s="1">
         <v>988</v>
       </c>
@@ -25867,6 +25987,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>